--- a/data/trans_orig/P79A6_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79A6_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>68133</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>59171</v>
+        <v>60539</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>74819</v>
+        <v>75452</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7863603973889581</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6829334924230317</v>
+        <v>0.6987234099587748</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8635311600113402</v>
+        <v>0.8708346908141861</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>172</v>
@@ -762,19 +762,19 @@
         <v>109680</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>101516</v>
+        <v>100282</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>116190</v>
+        <v>115587</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8550516225310143</v>
+        <v>0.8550516225310142</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7914048402924949</v>
+        <v>0.7817821572839064</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9058005886683476</v>
+        <v>0.901103718368008</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>253</v>
@@ -783,19 +783,19 @@
         <v>177813</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>166709</v>
+        <v>165837</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>187571</v>
+        <v>187611</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8273590151700025</v>
+        <v>0.8273590151700024</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7756920336504587</v>
+        <v>0.7716367428537236</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.872763415373881</v>
+        <v>0.8729482676259025</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>18510</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11824</v>
+        <v>11191</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27472</v>
+        <v>26104</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2136396026110419</v>
+        <v>0.213639602611042</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1364688399886598</v>
+        <v>0.1291653091858144</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3170665075769682</v>
+        <v>0.3012765900412255</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -833,19 +833,19 @@
         <v>18593</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12083</v>
+        <v>12686</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26757</v>
+        <v>27991</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1449483774689858</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0941994113316524</v>
+        <v>0.09889628163199211</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2085951597075051</v>
+        <v>0.2182178427160932</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>44</v>
@@ -854,19 +854,19 @@
         <v>37103</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27345</v>
+        <v>27305</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>48207</v>
+        <v>49079</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1726409848299974</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1272365846261189</v>
+        <v>0.1270517323740974</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2243079663495413</v>
+        <v>0.2283632571462763</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>174930</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>163539</v>
+        <v>163636</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>182332</v>
+        <v>182513</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9013674722253999</v>
+        <v>0.9013674722254001</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8426717152329053</v>
+        <v>0.8431729593851854</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9395065659803183</v>
+        <v>0.940440657456958</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>193</v>
@@ -979,19 +979,19 @@
         <v>165473</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>151913</v>
+        <v>150777</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>176198</v>
+        <v>177226</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8339300835046469</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7655910046799043</v>
+        <v>0.7598659383088119</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8879759602719348</v>
+        <v>0.8931604846787085</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>348</v>
@@ -1000,19 +1000,19 @@
         <v>340404</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>322892</v>
+        <v>321492</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>354137</v>
+        <v>353259</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8672747303962243</v>
+        <v>0.8672747303962244</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8226601807771629</v>
+        <v>0.8190913564381883</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9022634910098601</v>
+        <v>0.9000286699389302</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>19142</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11740</v>
+        <v>11559</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30533</v>
+        <v>30436</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09863252777460002</v>
+        <v>0.09863252777460003</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06049343401968184</v>
+        <v>0.05955934254304216</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1573282847670948</v>
+        <v>0.1568270406148154</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -1050,19 +1050,19 @@
         <v>32953</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>22228</v>
+        <v>21200</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>46513</v>
+        <v>47649</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1660699164953531</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1120240397280652</v>
+        <v>0.1068395153212916</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2344089953200961</v>
+        <v>0.2401340616911881</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>48</v>
@@ -1071,19 +1071,19 @@
         <v>52094</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>38361</v>
+        <v>39239</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>69606</v>
+        <v>71006</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1327252696037756</v>
+        <v>0.1327252696037757</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09773650899014004</v>
+        <v>0.09997133006106977</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1773398192228372</v>
+        <v>0.1809086435618113</v>
       </c>
     </row>
     <row r="9">
@@ -1188,19 +1188,19 @@
         <v>21770</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16050</v>
+        <v>16021</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24817</v>
+        <v>25383</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8047065331929905</v>
+        <v>0.8047065331929902</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5932938229491457</v>
+        <v>0.5922209042007746</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9173564560550984</v>
+        <v>0.9382672026655593</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -1209,19 +1209,19 @@
         <v>34745</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28248</v>
+        <v>28047</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38146</v>
+        <v>38202</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8680077244255251</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7057074086418896</v>
+        <v>0.7006859708718127</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9529732285617049</v>
+        <v>0.9543902859449666</v>
       </c>
     </row>
     <row r="11">
@@ -1251,19 +1251,19 @@
         <v>5283</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2236</v>
+        <v>1670</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11003</v>
+        <v>11032</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1952934668070097</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08264354394490163</v>
+        <v>0.0617327973344408</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4067061770508563</v>
+        <v>0.4077790957992255</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1272,19 +1272,19 @@
         <v>5283</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1882</v>
+        <v>1826</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11780</v>
+        <v>11981</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1319922755744749</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04702677143829508</v>
+        <v>0.04560971405503327</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.29429259135811</v>
+        <v>0.2993140291281872</v>
       </c>
     </row>
     <row r="12">
@@ -1376,19 +1376,19 @@
         <v>256037</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>244093</v>
+        <v>241673</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>267246</v>
+        <v>265767</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8717959495910227</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8311285043321256</v>
+        <v>0.8228874748367311</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9099621338174613</v>
+        <v>0.9049259872437935</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>393</v>
@@ -1397,19 +1397,19 @@
         <v>296924</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>279275</v>
+        <v>279391</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>308944</v>
+        <v>310457</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.8393540425330274</v>
+        <v>0.8393540425330273</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7894626004053595</v>
+        <v>0.7897923594971228</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8733317902460598</v>
+        <v>0.8776092401261155</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>643</v>
@@ -1418,19 +1418,19 @@
         <v>552961</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>532919</v>
+        <v>532240</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>570540</v>
+        <v>571478</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8540701592290861</v>
+        <v>0.8540701592290864</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8231148769064192</v>
+        <v>0.8220652992726727</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.881222064258823</v>
+        <v>0.8826707445561311</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>37652</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>26443</v>
+        <v>27922</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49596</v>
+        <v>52016</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1282040504089773</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09003786618253877</v>
+        <v>0.09507401275620647</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1688714956678741</v>
+        <v>0.1771125251632686</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>61</v>
@@ -1468,19 +1468,19 @@
         <v>56829</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>44809</v>
+        <v>43296</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74478</v>
+        <v>74362</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1606459574669726</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1266682097539403</v>
+        <v>0.1223907598738845</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2105373995946406</v>
+        <v>0.210207640502877</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>97</v>
@@ -1489,19 +1489,19 @@
         <v>94481</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>76902</v>
+        <v>75964</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>114523</v>
+        <v>115202</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1459298407709138</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.118777935741177</v>
+        <v>0.117329255443869</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1768851230935809</v>
+        <v>0.1779347007273273</v>
       </c>
     </row>
     <row r="15">
